--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.121397659438143</v>
+        <v>-0.100195032778358</v>
       </c>
       <c r="C2">
-        <v>1.947769306004742</v>
+        <v>1.879008151558315</v>
       </c>
       <c r="D2">
-        <v>16.2204996423921</v>
+        <v>15.52109306684352</v>
       </c>
       <c r="E2">
-        <v>4.027468142939444</v>
+        <v>3.939681848429327</v>
       </c>
       <c r="F2">
-        <v>4.120371975318841</v>
+        <v>4.026922141332304</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1455178495258324</v>
+        <v>0.1448133846575885</v>
       </c>
       <c r="C3">
-        <v>1.865887382719024</v>
+        <v>1.786984302705635</v>
       </c>
       <c r="D3">
-        <v>10.86181895358631</v>
+        <v>10.36886832397854</v>
       </c>
       <c r="E3">
-        <v>3.295727378529102</v>
+        <v>3.220072720293524</v>
       </c>
       <c r="F3">
-        <v>3.373822118089285</v>
+        <v>3.292514909155644</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5415993949049961</v>
+        <v>-0.5106375609785742</v>
       </c>
       <c r="C4">
-        <v>1.231055230903687</v>
+        <v>1.177604939791601</v>
       </c>
       <c r="D4">
-        <v>4.497133143378568</v>
+        <v>4.283545554090664</v>
       </c>
       <c r="E4">
-        <v>2.120644511316917</v>
+        <v>2.069672813294571</v>
       </c>
       <c r="F4">
-        <v>2.103581717181464</v>
+        <v>2.055221296400692</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06508130429019461</v>
+        <v>0.07283602206394024</v>
       </c>
       <c r="C5">
-        <v>0.8767066652063873</v>
+        <v>0.8438801149343232</v>
       </c>
       <c r="D5">
-        <v>1.670846796501555</v>
+        <v>1.589728322734128</v>
       </c>
       <c r="E5">
-        <v>1.29261239221259</v>
+        <v>1.260844289646476</v>
       </c>
       <c r="F5">
-        <v>1.326348646689169</v>
+        <v>1.291438706748583</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.001840817266257486</v>
+        <v>0.009315935962682875</v>
       </c>
       <c r="C6">
-        <v>0.8875919267893355</v>
+        <v>0.8519364303311395</v>
       </c>
       <c r="D6">
-        <v>1.837805967781626</v>
+        <v>1.743403430867843</v>
       </c>
       <c r="E6">
-        <v>1.355657024391356</v>
+        <v>1.320380032743544</v>
       </c>
       <c r="F6">
-        <v>1.394958283692542</v>
+        <v>1.356527761928607</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008124947682085127</v>
+        <v>0.01805680939183702</v>
       </c>
       <c r="C7">
-        <v>0.7159561371860674</v>
+        <v>0.6865640439233759</v>
       </c>
       <c r="D7">
-        <v>0.7630309326977125</v>
+        <v>0.7225809383130525</v>
       </c>
       <c r="E7">
-        <v>0.8735164181042693</v>
+        <v>0.8500476094390552</v>
       </c>
       <c r="F7">
-        <v>0.9003611638076442</v>
+        <v>0.8744944091926862</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05380545172899578</v>
+        <v>0.06286173468651945</v>
       </c>
       <c r="C8">
-        <v>0.8407975096694311</v>
+        <v>0.8035601421598704</v>
       </c>
       <c r="D8">
-        <v>1.146289860107972</v>
+        <v>1.081400171720104</v>
       </c>
       <c r="E8">
-        <v>1.070649270353262</v>
+        <v>1.039903924273827</v>
       </c>
       <c r="F8">
-        <v>1.104364593648172</v>
+        <v>1.069948180945846</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2078341876420724</v>
+        <v>0.2080312578962194</v>
       </c>
       <c r="C9">
-        <v>0.7282886445168046</v>
+        <v>0.6959573112162807</v>
       </c>
       <c r="D9">
-        <v>0.7047761452184085</v>
+        <v>0.6635098639986297</v>
       </c>
       <c r="E9">
-        <v>0.8395094670213127</v>
+        <v>0.8145611481028479</v>
       </c>
       <c r="F9">
-        <v>0.8419245145576347</v>
+        <v>0.813376737467042</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1406050984954254</v>
+        <v>0.1458528612741254</v>
       </c>
       <c r="C10">
-        <v>0.7330667310336486</v>
+        <v>0.6988170516431337</v>
       </c>
       <c r="D10">
-        <v>0.9710213064229738</v>
+        <v>0.9094933485271182</v>
       </c>
       <c r="E10">
-        <v>0.9854041335528149</v>
+        <v>0.9536736069154468</v>
       </c>
       <c r="F10">
-        <v>1.012138679225671</v>
+        <v>0.9755329814582326</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2091645432855972</v>
+        <v>0.2106889511877471</v>
       </c>
       <c r="C11">
-        <v>0.5365932181569125</v>
+        <v>0.5147298635682541</v>
       </c>
       <c r="D11">
-        <v>0.3782587785157353</v>
+        <v>0.3550355181284862</v>
       </c>
       <c r="E11">
-        <v>0.6150274615947936</v>
+        <v>0.5958485697964595</v>
       </c>
       <c r="F11">
-        <v>0.6019839865341253</v>
+        <v>0.578395630879239</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.100195032778358</v>
+        <v>-0.215323084493725</v>
       </c>
       <c r="C2">
-        <v>1.879008151558315</v>
+        <v>2.038076249176838</v>
       </c>
       <c r="D2">
-        <v>15.52109306684352</v>
+        <v>11.75110517027366</v>
       </c>
       <c r="E2">
-        <v>3.939681848429327</v>
+        <v>3.427988502062639</v>
       </c>
       <c r="F2">
-        <v>4.026922141332304</v>
+        <v>3.501729539135053</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1448133846575885</v>
+        <v>-0.3306279681019472</v>
       </c>
       <c r="C3">
-        <v>1.786984302705635</v>
+        <v>1.242235062533342</v>
       </c>
       <c r="D3">
-        <v>10.36886832397854</v>
+        <v>4.741407841354263</v>
       </c>
       <c r="E3">
-        <v>3.220072720293524</v>
+        <v>2.177477403178794</v>
       </c>
       <c r="F3">
-        <v>3.292514909155644</v>
+        <v>2.205379250257468</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5106375609785742</v>
+        <v>-0.1458582200366897</v>
       </c>
       <c r="C4">
-        <v>1.177604939791601</v>
+        <v>0.9788677861386604</v>
       </c>
       <c r="D4">
-        <v>4.283545554090664</v>
+        <v>2.521592853974958</v>
       </c>
       <c r="E4">
-        <v>2.069672813294571</v>
+        <v>1.587952409228614</v>
       </c>
       <c r="F4">
-        <v>2.055221296400692</v>
+        <v>1.622317456643164</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07283602206394024</v>
+        <v>0.05076098659158174</v>
       </c>
       <c r="C5">
-        <v>0.8438801149343232</v>
+        <v>0.9760318816071173</v>
       </c>
       <c r="D5">
-        <v>1.589728322734128</v>
+        <v>2.328783003756465</v>
       </c>
       <c r="E5">
-        <v>1.260844289646476</v>
+        <v>1.526035059805791</v>
       </c>
       <c r="F5">
-        <v>1.291438706748583</v>
+        <v>1.566984368388629</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.009315935962682875</v>
+        <v>-0.05249531032832062</v>
       </c>
       <c r="C6">
-        <v>0.8519364303311395</v>
+        <v>0.7762292542483971</v>
       </c>
       <c r="D6">
-        <v>1.743403430867843</v>
+        <v>0.8992286170298072</v>
       </c>
       <c r="E6">
-        <v>1.320380032743544</v>
+        <v>0.9482766563771393</v>
       </c>
       <c r="F6">
-        <v>1.356527761928607</v>
+        <v>0.9742723218056017</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01805680939183702</v>
+        <v>0.06042407413349108</v>
       </c>
       <c r="C7">
-        <v>0.6865640439233759</v>
+        <v>0.8524080490082017</v>
       </c>
       <c r="D7">
-        <v>0.7225809383130525</v>
+        <v>1.247859295983782</v>
       </c>
       <c r="E7">
-        <v>0.8500476094390552</v>
+        <v>1.117076226577122</v>
       </c>
       <c r="F7">
-        <v>0.8744944091926862</v>
+        <v>1.149770081995504</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06286173468651945</v>
+        <v>0.1693066921153091</v>
       </c>
       <c r="C8">
-        <v>0.8035601421598704</v>
+        <v>0.7346782204385869</v>
       </c>
       <c r="D8">
-        <v>1.081400171720104</v>
+        <v>0.7727529731107774</v>
       </c>
       <c r="E8">
-        <v>1.039903924273827</v>
+        <v>0.8790636911571182</v>
       </c>
       <c r="F8">
-        <v>1.069948180945846</v>
+        <v>0.8908951106930597</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2080312578962194</v>
+        <v>0.1421209623954074</v>
       </c>
       <c r="C9">
-        <v>0.6959573112162807</v>
+        <v>0.7259291398880572</v>
       </c>
       <c r="D9">
-        <v>0.6635098639986297</v>
+        <v>1.04014769163526</v>
       </c>
       <c r="E9">
-        <v>0.8145611481028479</v>
+        <v>1.019876311929667</v>
       </c>
       <c r="F9">
-        <v>0.813376737467042</v>
+        <v>1.045372109252625</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1458528612741254</v>
+        <v>0.1894198331387246</v>
       </c>
       <c r="C10">
-        <v>0.6988170516431337</v>
+        <v>0.5084780843008334</v>
       </c>
       <c r="D10">
-        <v>0.9094933485271182</v>
+        <v>0.3620977834071827</v>
       </c>
       <c r="E10">
-        <v>0.9536736069154468</v>
+        <v>0.6017456135338111</v>
       </c>
       <c r="F10">
-        <v>0.9755329814582326</v>
+        <v>0.5927154423688374</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2106889511877471</v>
+        <v>0.1832594546135161</v>
       </c>
       <c r="C11">
-        <v>0.5147298635682541</v>
+        <v>0.7061925678054805</v>
       </c>
       <c r="D11">
-        <v>0.3550355181284862</v>
+        <v>0.8060402952786281</v>
       </c>
       <c r="E11">
-        <v>0.5958485697964595</v>
+        <v>0.8977974689642582</v>
       </c>
       <c r="F11">
-        <v>0.578395630879239</v>
+        <v>0.9147828284377117</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.215323084493725</v>
+        <v>-0.100195032778358</v>
       </c>
       <c r="C2">
-        <v>2.038076249176838</v>
+        <v>1.879008151558315</v>
       </c>
       <c r="D2">
-        <v>11.75110517027366</v>
+        <v>15.52109306684352</v>
       </c>
       <c r="E2">
-        <v>3.427988502062639</v>
+        <v>3.939681848429327</v>
       </c>
       <c r="F2">
-        <v>3.501729539135053</v>
+        <v>4.026922141332304</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.3306279681019472</v>
+        <v>0.1448133846575885</v>
       </c>
       <c r="C3">
-        <v>1.242235062533342</v>
+        <v>1.786984302705635</v>
       </c>
       <c r="D3">
-        <v>4.741407841354263</v>
+        <v>10.36886832397854</v>
       </c>
       <c r="E3">
-        <v>2.177477403178794</v>
+        <v>3.220072720293524</v>
       </c>
       <c r="F3">
-        <v>2.205379250257468</v>
+        <v>3.292514909155644</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1458582200366897</v>
+        <v>-0.5106375609785742</v>
       </c>
       <c r="C4">
-        <v>0.9788677861386604</v>
+        <v>1.177604939791601</v>
       </c>
       <c r="D4">
-        <v>2.521592853974958</v>
+        <v>4.283545554090664</v>
       </c>
       <c r="E4">
-        <v>1.587952409228614</v>
+        <v>2.069672813294571</v>
       </c>
       <c r="F4">
-        <v>1.622317456643164</v>
+        <v>2.055221296400692</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05076098659158174</v>
+        <v>0.07283602206394024</v>
       </c>
       <c r="C5">
-        <v>0.9760318816071173</v>
+        <v>0.8438801149343232</v>
       </c>
       <c r="D5">
-        <v>2.328783003756465</v>
+        <v>1.589728322734128</v>
       </c>
       <c r="E5">
-        <v>1.526035059805791</v>
+        <v>1.260844289646476</v>
       </c>
       <c r="F5">
-        <v>1.566984368388629</v>
+        <v>1.291438706748583</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05249531032832062</v>
+        <v>0.009315935962682875</v>
       </c>
       <c r="C6">
-        <v>0.7762292542483971</v>
+        <v>0.8519364303311395</v>
       </c>
       <c r="D6">
-        <v>0.8992286170298072</v>
+        <v>1.743403430867843</v>
       </c>
       <c r="E6">
-        <v>0.9482766563771393</v>
+        <v>1.320380032743544</v>
       </c>
       <c r="F6">
-        <v>0.9742723218056017</v>
+        <v>1.356527761928607</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06042407413349108</v>
+        <v>0.01805680939183702</v>
       </c>
       <c r="C7">
-        <v>0.8524080490082017</v>
+        <v>0.6865640439233759</v>
       </c>
       <c r="D7">
-        <v>1.247859295983782</v>
+        <v>0.7225809383130525</v>
       </c>
       <c r="E7">
-        <v>1.117076226577122</v>
+        <v>0.8500476094390552</v>
       </c>
       <c r="F7">
-        <v>1.149770081995504</v>
+        <v>0.8744944091926862</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1693066921153091</v>
+        <v>0.06286173468651945</v>
       </c>
       <c r="C8">
-        <v>0.7346782204385869</v>
+        <v>0.8035601421598704</v>
       </c>
       <c r="D8">
-        <v>0.7727529731107774</v>
+        <v>1.081400171720104</v>
       </c>
       <c r="E8">
-        <v>0.8790636911571182</v>
+        <v>1.039903924273827</v>
       </c>
       <c r="F8">
-        <v>0.8908951106930597</v>
+        <v>1.069948180945846</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1421209623954074</v>
+        <v>0.2080312578962194</v>
       </c>
       <c r="C9">
-        <v>0.7259291398880572</v>
+        <v>0.6959573112162807</v>
       </c>
       <c r="D9">
-        <v>1.04014769163526</v>
+        <v>0.6635098639986297</v>
       </c>
       <c r="E9">
-        <v>1.019876311929667</v>
+        <v>0.8145611481028479</v>
       </c>
       <c r="F9">
-        <v>1.045372109252625</v>
+        <v>0.813376737467042</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1894198331387246</v>
+        <v>0.1458528612741254</v>
       </c>
       <c r="C10">
-        <v>0.5084780843008334</v>
+        <v>0.6988170516431337</v>
       </c>
       <c r="D10">
-        <v>0.3620977834071827</v>
+        <v>0.9094933485271182</v>
       </c>
       <c r="E10">
-        <v>0.6017456135338111</v>
+        <v>0.9536736069154468</v>
       </c>
       <c r="F10">
-        <v>0.5927154423688374</v>
+        <v>0.9755329814582326</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1832594546135161</v>
+        <v>0.2106889511877471</v>
       </c>
       <c r="C11">
-        <v>0.7061925678054805</v>
+        <v>0.5147298635682541</v>
       </c>
       <c r="D11">
-        <v>0.8060402952786281</v>
+        <v>0.3550355181284862</v>
       </c>
       <c r="E11">
-        <v>0.8977974689642582</v>
+        <v>0.5958485697964595</v>
       </c>
       <c r="F11">
-        <v>0.9147828284377117</v>
+        <v>0.578395630879239</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
